--- a/models/Multi_dimentional_data_covar/11_Wirtschaft_allg_2.xlsx
+++ b/models/Multi_dimentional_data_covar/11_Wirtschaft_allg_2.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -35,12 +40,15 @@
   <si>
     <t>Wie beurteilen Sie die Wirtschaftslage in Deutschland?</t>
   </si>
+  <si>
+    <t>Datum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +100,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,11 +131,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -126,7 +146,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -136,10 +156,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -147,8 +167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -178,6 +200,12 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,15 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,82 +523,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:FN353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="2:9" s="3" customFormat="1">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:9" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:9" s="20" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="B9" s="8">
         <v>35083</v>
       </c>
@@ -588,7 +615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>35111</v>
       </c>
@@ -603,7 +630,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>35139</v>
       </c>
@@ -617,7 +644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>35174</v>
       </c>
@@ -631,7 +658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>35209</v>
       </c>
@@ -645,7 +672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>35237</v>
       </c>
@@ -659,7 +686,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>35300</v>
       </c>
@@ -673,7 +700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>35356</v>
       </c>
@@ -687,7 +714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="8">
         <v>35384</v>
       </c>
@@ -701,7 +728,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="8">
         <v>35412</v>
       </c>
@@ -715,7 +742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" s="8">
         <v>35447</v>
       </c>
@@ -729,7 +756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" s="8">
         <v>35482</v>
       </c>
@@ -743,7 +770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5">
       <c r="B21" s="8">
         <v>35510</v>
       </c>
@@ -757,7 +784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="8">
         <v>35538</v>
       </c>
@@ -771,7 +798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5">
       <c r="B23" s="8">
         <v>35566</v>
       </c>
@@ -785,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5">
       <c r="B24" s="8">
         <v>35601</v>
       </c>
@@ -799,7 +826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5">
       <c r="B25" s="8">
         <v>35671</v>
       </c>
@@ -813,7 +840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5">
       <c r="B26" s="8">
         <v>35699</v>
       </c>
@@ -827,7 +854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5">
       <c r="B27" s="8">
         <v>35720</v>
       </c>
@@ -841,7 +868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5">
       <c r="B28" s="8">
         <v>35748</v>
       </c>
@@ -855,7 +882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5">
       <c r="B29" s="8">
         <v>35776</v>
       </c>
@@ -869,7 +896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5">
       <c r="B30" s="8">
         <v>35811</v>
       </c>
@@ -883,7 +910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5">
       <c r="B31" s="8">
         <v>35839</v>
       </c>
@@ -897,7 +924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5">
       <c r="B32" s="8">
         <v>35867</v>
       </c>
@@ -911,7 +938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5">
       <c r="B33" s="8">
         <v>35902</v>
       </c>
@@ -925,7 +952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5">
       <c r="B34" s="8">
         <v>35930</v>
       </c>
@@ -939,7 +966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5">
       <c r="B35" s="8">
         <v>35965</v>
       </c>
@@ -953,7 +980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5">
       <c r="B36" s="8">
         <v>35993</v>
       </c>
@@ -967,7 +994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5">
       <c r="B37" s="8">
         <v>36021</v>
       </c>
@@ -981,7 +1008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5">
       <c r="B38" s="8">
         <v>36042</v>
       </c>
@@ -995,7 +1022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5">
       <c r="B39" s="8">
         <v>36049</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5">
       <c r="B40" s="8">
         <v>36056</v>
       </c>
@@ -1023,7 +1050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5">
       <c r="B41" s="8">
         <v>36084</v>
       </c>
@@ -1037,7 +1064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5">
       <c r="B42" s="8">
         <v>36112</v>
       </c>
@@ -1051,7 +1078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5">
       <c r="B43" s="8">
         <v>36140</v>
       </c>
@@ -1065,7 +1092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5">
       <c r="B44" s="8">
         <v>36182</v>
       </c>
@@ -1079,7 +1106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5">
       <c r="B45" s="8">
         <v>36217</v>
       </c>
@@ -1093,7 +1120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5">
       <c r="B46" s="8">
         <v>36238</v>
       </c>
@@ -1107,7 +1134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5">
       <c r="B47" s="8">
         <v>36266</v>
       </c>
@@ -1121,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5">
       <c r="B48" s="8">
         <v>36301</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5">
       <c r="B49" s="8">
         <v>36336</v>
       </c>
@@ -1149,7 +1176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5">
       <c r="B50" s="8">
         <v>36364</v>
       </c>
@@ -1163,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5">
       <c r="B51" s="8">
         <v>36392</v>
       </c>
@@ -1177,7 +1204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5">
       <c r="B52" s="8">
         <v>36427</v>
       </c>
@@ -1191,7 +1218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5">
       <c r="B53" s="8">
         <v>36448</v>
       </c>
@@ -1205,7 +1232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5">
       <c r="B54" s="8">
         <v>36476</v>
       </c>
@@ -1219,7 +1246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5">
       <c r="B55" s="8">
         <v>36504</v>
       </c>
@@ -1233,7 +1260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5">
       <c r="B56" s="8">
         <v>36546</v>
       </c>
@@ -1247,7 +1274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5">
       <c r="B57" s="8">
         <v>36574</v>
       </c>
@@ -1261,7 +1288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5">
       <c r="B58" s="8">
         <v>36602</v>
       </c>
@@ -1275,7 +1302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5">
       <c r="B59" s="8">
         <v>36630</v>
       </c>
@@ -1289,7 +1316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5">
       <c r="B60" s="8">
         <v>36665</v>
       </c>
@@ -1303,7 +1330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5">
       <c r="B61" s="8">
         <v>36700</v>
       </c>
@@ -1317,7 +1344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5">
       <c r="B62" s="8">
         <v>36735</v>
       </c>
@@ -1331,7 +1358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5">
       <c r="B63" s="8">
         <v>36763</v>
       </c>
@@ -1345,7 +1372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5">
       <c r="B64" s="8">
         <v>36791</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:5">
       <c r="B65" s="8">
         <v>36819</v>
       </c>
@@ -1373,7 +1400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:5">
       <c r="B66" s="8">
         <v>36847</v>
       </c>
@@ -1387,7 +1414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:5">
       <c r="B67" s="8">
         <v>36875</v>
       </c>
@@ -1401,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:5">
       <c r="B68" s="8">
         <v>36910</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:5">
       <c r="B69" s="8">
         <v>36938</v>
       </c>
@@ -1429,7 +1456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:5">
       <c r="B70" s="8">
         <v>36966</v>
       </c>
@@ -1443,7 +1470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:5">
       <c r="B71" s="8">
         <v>36987</v>
       </c>
@@ -1457,7 +1484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5">
       <c r="B72" s="8">
         <v>37029</v>
       </c>
@@ -1471,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:5">
       <c r="B73" s="8">
         <v>37064</v>
       </c>
@@ -1485,7 +1512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:5">
       <c r="B74" s="8">
         <v>37092</v>
       </c>
@@ -1499,7 +1526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:5">
       <c r="B75" s="8">
         <v>37127</v>
       </c>
@@ -1513,7 +1540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:5">
       <c r="B76" s="8">
         <v>37148</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5">
       <c r="B77" s="8">
         <v>37176</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:5">
       <c r="B78" s="8">
         <v>37211</v>
       </c>
@@ -1555,7 +1582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:5">
       <c r="B79" s="8">
         <v>37239</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:5">
       <c r="B80" s="8">
         <v>37274</v>
       </c>
@@ -1583,7 +1610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:5">
       <c r="B81" s="8">
         <v>37309</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:5">
       <c r="B82" s="8">
         <v>37337</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:5">
       <c r="B83" s="8">
         <v>37372</v>
       </c>
@@ -1625,7 +1652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:5">
       <c r="B84" s="8">
         <v>37407</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:5">
       <c r="B85" s="8">
         <v>37435</v>
       </c>
@@ -1653,7 +1680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:5">
       <c r="B86" s="8">
         <v>37463</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:5">
       <c r="B87" s="8">
         <v>37491</v>
       </c>
@@ -1681,7 +1708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:5">
       <c r="B88" s="8">
         <v>37498</v>
       </c>
@@ -1695,7 +1722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:5">
       <c r="B89" s="8">
         <v>37505</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:5">
       <c r="B90" s="8">
         <v>37512</v>
       </c>
@@ -1723,7 +1750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:5">
       <c r="B91" s="8">
         <v>37547</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:5">
       <c r="B92" s="8">
         <v>37575</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:5">
       <c r="B93" s="8">
         <v>37603</v>
       </c>
@@ -1765,7 +1792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:5">
       <c r="B94" s="8">
         <v>37645</v>
       </c>
@@ -1779,7 +1806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:5">
       <c r="B95" s="8">
         <v>37659</v>
       </c>
@@ -1793,7 +1820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:5">
       <c r="B96" s="8">
         <v>37673</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:5">
       <c r="B97" s="8">
         <v>37694</v>
       </c>
@@ -1821,7 +1848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:5">
       <c r="B98" s="8">
         <v>37708</v>
       </c>
@@ -1835,7 +1862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:5">
       <c r="B99" s="8">
         <v>37722</v>
       </c>
@@ -1849,7 +1876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:5">
       <c r="B100" s="8">
         <v>37743</v>
       </c>
@@ -1863,7 +1890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:5">
       <c r="B101" s="8">
         <v>37757</v>
       </c>
@@ -1877,7 +1904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:5">
       <c r="B102" s="8">
         <v>37778</v>
       </c>
@@ -1891,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:5">
       <c r="B103" s="8">
         <v>37799</v>
       </c>
@@ -1905,7 +1932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:5">
       <c r="B104" s="8">
         <v>37820</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:5">
       <c r="B105" s="8">
         <v>37855</v>
       </c>
@@ -1933,7 +1960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:5">
       <c r="B106" s="8">
         <v>37876</v>
       </c>
@@ -1947,7 +1974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:5">
       <c r="B107" s="8">
         <v>37904</v>
       </c>
@@ -1961,7 +1988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:5">
       <c r="B108" s="8">
         <v>37918</v>
       </c>
@@ -1975,7 +2002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:5">
       <c r="B109" s="8">
         <v>37939</v>
       </c>
@@ -1989,7 +2016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:5">
       <c r="B110" s="8">
         <v>37953</v>
       </c>
@@ -2003,7 +2030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:5">
       <c r="B111" s="8">
         <v>37967</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:5">
       <c r="B112" s="8">
         <v>38002</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5">
       <c r="B113" s="8">
         <v>38030</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5">
       <c r="B114" s="8">
         <v>38051</v>
       </c>
@@ -2059,7 +2086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5">
       <c r="B115" s="8">
         <v>38065</v>
       </c>
@@ -2073,7 +2100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5">
       <c r="B116" s="8">
         <v>38079</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5">
       <c r="B117" s="8">
         <v>38100</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5">
       <c r="B118" s="8">
         <v>38121</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5">
       <c r="B119" s="8">
         <v>38135</v>
       </c>
@@ -2129,7 +2156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5">
       <c r="B120" s="8">
         <v>38163</v>
       </c>
@@ -2143,7 +2170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:5">
       <c r="B121" s="8">
         <v>38177</v>
       </c>
@@ -2157,7 +2184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:5">
       <c r="B122" s="8">
         <v>38191</v>
       </c>
@@ -2171,7 +2198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:5">
       <c r="B123" s="8">
         <v>38226</v>
       </c>
@@ -2185,7 +2212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:5">
       <c r="B124" s="8">
         <v>38254</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:5">
       <c r="B125" s="8">
         <v>38275</v>
       </c>
@@ -2213,7 +2240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:5">
       <c r="B126" s="8">
         <v>38289</v>
       </c>
@@ -2227,7 +2254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:5">
       <c r="B127" s="8">
         <v>38303</v>
       </c>
@@ -2241,7 +2268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:5">
       <c r="B128" s="8">
         <v>38317</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:5">
       <c r="B129" s="8">
         <v>38331</v>
       </c>
@@ -2269,7 +2296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:5">
       <c r="B130" s="8">
         <v>38366</v>
       </c>
@@ -2283,7 +2310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:5">
       <c r="B131" s="8">
         <v>38380</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:5">
       <c r="B132" s="8">
         <v>38408</v>
       </c>
@@ -2311,7 +2338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:5">
       <c r="B133" s="8">
         <v>38429</v>
       </c>
@@ -2325,7 +2352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:5">
       <c r="B134" s="8">
         <v>38457</v>
       </c>
@@ -2339,7 +2366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:5">
       <c r="B135" s="8">
         <v>38471</v>
       </c>
@@ -2353,7 +2380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:5">
       <c r="B136" s="8">
         <v>38499</v>
       </c>
@@ -2367,7 +2394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:5">
       <c r="B137" s="8">
         <v>38513</v>
       </c>
@@ -2381,7 +2408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:5">
       <c r="B138" s="8">
         <v>38527</v>
       </c>
@@ -2395,7 +2422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:5">
       <c r="B139" s="8">
         <v>38541</v>
       </c>
@@ -2409,7 +2436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:5">
       <c r="B140" s="8">
         <v>38555</v>
       </c>
@@ -2423,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:5">
       <c r="B141" s="8">
         <v>38569</v>
       </c>
@@ -2437,7 +2464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:5">
       <c r="B142" s="8">
         <v>38576</v>
       </c>
@@ -2451,7 +2478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:5">
       <c r="B143" s="8">
         <v>38583</v>
       </c>
@@ -2465,7 +2492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:5">
       <c r="B144" s="8">
         <v>38590</v>
       </c>
@@ -2479,7 +2506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="8">
         <v>38597</v>
       </c>
@@ -2493,7 +2520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="8">
         <v>38604</v>
       </c>
@@ -2507,7 +2534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="8">
         <v>38618</v>
       </c>
@@ -2521,7 +2548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="8">
         <v>38632</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="8">
         <v>38639</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="8">
         <v>38653</v>
       </c>
@@ -2563,7 +2590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="8">
         <v>38667</v>
       </c>
@@ -2577,7 +2604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="8">
         <v>38681</v>
       </c>
@@ -2591,7 +2618,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5">
       <c r="B153" s="8">
         <v>38695</v>
       </c>
@@ -2605,7 +2632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5">
       <c r="B154" s="8">
         <v>38730</v>
       </c>
@@ -2619,7 +2646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="8">
         <v>38744</v>
       </c>
@@ -2633,7 +2660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5">
       <c r="B156" s="8">
         <v>38765</v>
       </c>
@@ -2647,7 +2674,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" s="8">
         <v>38786</v>
       </c>
@@ -2661,7 +2688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:5">
       <c r="B158" s="8">
         <v>38814</v>
       </c>
@@ -2675,7 +2702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="8">
         <v>38835</v>
       </c>
@@ -2689,7 +2716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="8">
         <v>38856</v>
       </c>
@@ -2703,7 +2730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:5">
       <c r="B161" s="8">
         <v>38884</v>
       </c>
@@ -2717,7 +2744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:5">
       <c r="B162" s="8">
         <v>38912</v>
       </c>
@@ -2731,7 +2758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:5">
       <c r="B163" s="8">
         <v>38947</v>
       </c>
@@ -2745,7 +2772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:5">
       <c r="B164" s="8">
         <v>38961</v>
       </c>
@@ -2759,7 +2786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:5">
       <c r="B165" s="8">
         <v>38989</v>
       </c>
@@ -2773,7 +2800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:5">
       <c r="B166" s="8">
         <v>39003</v>
       </c>
@@ -2787,7 +2814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:5">
       <c r="B167" s="8">
         <v>39017</v>
       </c>
@@ -2801,7 +2828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:5">
       <c r="B168" s="8">
         <v>39031</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:5">
       <c r="B169" s="8">
         <v>39045</v>
       </c>
@@ -2829,7 +2856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:5">
       <c r="B170" s="8">
         <v>39066</v>
       </c>
@@ -2843,7 +2870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:5">
       <c r="B171" s="8">
         <v>39094</v>
       </c>
@@ -2857,7 +2884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:5">
       <c r="B172" s="8">
         <v>39122</v>
       </c>
@@ -2871,7 +2898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:5">
       <c r="B173" s="8">
         <v>39143</v>
       </c>
@@ -2885,7 +2912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:5">
       <c r="B174" s="8">
         <v>39157</v>
       </c>
@@ -2899,7 +2926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:5">
       <c r="B175" s="8">
         <v>39171</v>
       </c>
@@ -2913,7 +2940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:5">
       <c r="B176" s="8">
         <v>39192</v>
       </c>
@@ -2927,7 +2954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:5">
       <c r="B177" s="8">
         <v>39220</v>
       </c>
@@ -2941,7 +2968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:5">
       <c r="B178" s="8">
         <v>39234</v>
       </c>
@@ -2955,7 +2982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:5">
       <c r="B179" s="8">
         <v>39255</v>
       </c>
@@ -2969,7 +2996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:5">
       <c r="B180" s="8">
         <v>39283</v>
       </c>
@@ -2983,7 +3010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:5">
       <c r="B181" s="8">
         <v>39311</v>
       </c>
@@ -2997,7 +3024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:5">
       <c r="B182" s="8">
         <v>39339</v>
       </c>
@@ -3011,7 +3038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:5">
       <c r="B183" s="8">
         <v>39360</v>
       </c>
@@ -3025,7 +3052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:5">
       <c r="B184" s="8">
         <v>39374</v>
       </c>
@@ -3039,7 +3066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:5">
       <c r="B185" s="8">
         <v>39395</v>
       </c>
@@ -3053,7 +3080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:5">
       <c r="B186" s="8">
         <v>39409</v>
       </c>
@@ -3067,7 +3094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:5">
       <c r="B187" s="8">
         <v>39430</v>
       </c>
@@ -3081,7 +3108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:5">
       <c r="B188" s="8">
         <v>39458</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:5">
       <c r="B189" s="8">
         <v>39486</v>
       </c>
@@ -3109,7 +3136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:5">
       <c r="B190" s="8">
         <v>39507</v>
       </c>
@@ -3123,7 +3150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:5">
       <c r="B191" s="8">
         <v>39521</v>
       </c>
@@ -3137,7 +3164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:5">
       <c r="B192" s="8">
         <v>39542</v>
       </c>
@@ -3151,7 +3178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5">
       <c r="B193" s="8">
         <v>39556</v>
       </c>
@@ -3165,7 +3192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5">
       <c r="B194" s="8">
         <v>39577</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5">
       <c r="B195" s="8">
         <v>39598</v>
       </c>
@@ -3193,7 +3220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5">
       <c r="B196" s="8">
         <v>39612</v>
       </c>
@@ -3207,7 +3234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5">
       <c r="B197" s="8">
         <v>39640</v>
       </c>
@@ -3221,7 +3248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5">
       <c r="B198" s="8">
         <v>39675</v>
       </c>
@@ -3235,7 +3262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5">
       <c r="B199" s="8">
         <v>39703</v>
       </c>
@@ -3249,7 +3276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5">
       <c r="B200" s="8">
         <v>39731</v>
       </c>
@@ -3263,7 +3290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5">
       <c r="B201" s="8">
         <v>39745</v>
       </c>
@@ -3277,7 +3304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5">
       <c r="B202" s="8">
         <v>39759</v>
       </c>
@@ -3291,7 +3318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5">
       <c r="B203" s="8">
         <v>39773</v>
       </c>
@@ -3305,7 +3332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5">
       <c r="B204" s="8">
         <v>39794</v>
       </c>
@@ -3319,7 +3346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5">
       <c r="B205" s="8">
         <v>39822</v>
       </c>
@@ -3333,7 +3360,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5">
       <c r="B206" s="8">
         <v>39843</v>
       </c>
@@ -3347,7 +3374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5">
       <c r="B207" s="8">
         <v>39857</v>
       </c>
@@ -3361,7 +3388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5">
       <c r="B208" s="8">
         <v>39878</v>
       </c>
@@ -3375,7 +3402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5">
       <c r="B209" s="8">
         <v>39899</v>
       </c>
@@ -3389,7 +3416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5">
       <c r="B210" s="8">
         <v>39927</v>
       </c>
@@ -3403,7 +3430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5">
       <c r="B211" s="8">
         <v>39941</v>
       </c>
@@ -3417,7 +3444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5">
       <c r="B212" s="8">
         <v>39962</v>
       </c>
@@ -3431,7 +3458,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5">
       <c r="B213" s="8">
         <v>39976</v>
       </c>
@@ -3445,7 +3472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5">
       <c r="B214" s="8">
         <v>39997</v>
       </c>
@@ -3459,7 +3486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5">
       <c r="B215" s="8">
         <v>40018</v>
       </c>
@@ -3473,7 +3500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:5">
       <c r="B216" s="8">
         <v>40032</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:5">
       <c r="B217" s="8">
         <v>40046</v>
       </c>
@@ -3501,7 +3528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5">
       <c r="B218" s="8">
         <v>40053</v>
       </c>
@@ -3515,7 +3542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5">
       <c r="B219" s="8">
         <v>40060</v>
       </c>
@@ -3529,7 +3556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5">
       <c r="B220" s="8">
         <v>40067</v>
       </c>
@@ -3543,7 +3570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5">
       <c r="B221" s="8">
         <v>40074</v>
       </c>
@@ -3557,7 +3584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5">
       <c r="B222" s="8">
         <v>40088</v>
       </c>
@@ -3571,7 +3598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5">
       <c r="B223" s="8">
         <v>40102</v>
       </c>
@@ -3585,7 +3612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5">
       <c r="B224" s="8">
         <v>40116</v>
       </c>
@@ -3599,7 +3626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:5">
       <c r="B225" s="8">
         <v>40144</v>
       </c>
@@ -3613,7 +3640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:5">
       <c r="B226" s="8">
         <v>40158</v>
       </c>
@@ -3627,7 +3654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:5">
       <c r="B227" s="8">
         <v>40193</v>
       </c>
@@ -3641,7 +3668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:5">
       <c r="B228" s="8">
         <v>40207</v>
       </c>
@@ -3655,7 +3682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:5">
       <c r="B229" s="8">
         <v>40235</v>
       </c>
@@ -3669,7 +3696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:5">
       <c r="B230" s="8">
         <v>40249</v>
       </c>
@@ -3683,7 +3710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:5">
       <c r="B231" s="8">
         <v>40263</v>
       </c>
@@ -3697,7 +3724,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:5">
       <c r="B232" s="8">
         <v>40291</v>
       </c>
@@ -3711,7 +3738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:5">
       <c r="B233" s="8">
         <v>40319</v>
       </c>
@@ -3725,7 +3752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:5">
       <c r="B234" s="8">
         <v>40333</v>
       </c>
@@ -3739,7 +3766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:5">
       <c r="B235" s="8">
         <v>40347</v>
       </c>
@@ -3753,7 +3780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:5">
       <c r="B236" s="8">
         <v>40375</v>
       </c>
@@ -3767,7 +3794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:5">
       <c r="B237" s="8">
         <v>40417</v>
       </c>
@@ -3781,7 +3808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:5">
       <c r="B238" s="8">
         <v>40431</v>
       </c>
@@ -3795,7 +3822,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:5">
       <c r="B239" s="8">
         <v>40445</v>
       </c>
@@ -3809,7 +3836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:5">
       <c r="B240" s="8">
         <v>40452</v>
       </c>
@@ -3823,7 +3850,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:5">
       <c r="B241" s="8">
         <v>40473</v>
       </c>
@@ -3837,7 +3864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:5">
       <c r="B242" s="8">
         <v>40494</v>
       </c>
@@ -3851,7 +3878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:5">
       <c r="B243" s="8">
         <v>40515</v>
       </c>
@@ -3865,7 +3892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:5">
       <c r="B244" s="8">
         <v>40529</v>
       </c>
@@ -3879,7 +3906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:5">
       <c r="B245" s="8">
         <v>40557</v>
       </c>
@@ -3893,7 +3920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:5">
       <c r="B246" s="8">
         <v>40571</v>
       </c>
@@ -3907,7 +3934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:5">
       <c r="B247" s="8">
         <v>40585</v>
       </c>
@@ -3921,7 +3948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:5">
       <c r="B248" s="8">
         <v>40599</v>
       </c>
@@ -3935,7 +3962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:5">
       <c r="B249" s="8">
         <v>40634</v>
       </c>
@@ -3949,7 +3976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:5">
       <c r="B250" s="8">
         <v>40648</v>
       </c>
@@ -3963,7 +3990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:5">
       <c r="B251" s="8">
         <v>40669</v>
       </c>
@@ -3977,7 +4004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:5">
       <c r="B252" s="8">
         <v>40690</v>
       </c>
@@ -3991,7 +4018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:5">
       <c r="B253" s="8">
         <v>40704</v>
       </c>
@@ -4005,7 +4032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:5">
       <c r="B254" s="8">
         <v>40739</v>
       </c>
@@ -4019,7 +4046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:5">
       <c r="B255" s="8">
         <v>40767</v>
       </c>
@@ -4033,7 +4060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:5">
       <c r="B256" s="8">
         <v>40795</v>
       </c>
@@ -4047,7 +4074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:170">
       <c r="B257" s="8">
         <v>40809</v>
       </c>
@@ -4061,7 +4088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="258" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:170">
       <c r="B258" s="8">
         <v>40830</v>
       </c>
@@ -4075,7 +4102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:170">
       <c r="B259" s="8">
         <v>40844</v>
       </c>
@@ -4089,7 +4116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:170">
       <c r="B260" s="8">
         <v>40858</v>
       </c>
@@ -4104,7 +4131,7 @@
       </c>
       <c r="FN260" s="6"/>
     </row>
-    <row r="261" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:170">
       <c r="B261" s="8">
         <v>40872</v>
       </c>
@@ -4119,7 +4146,7 @@
       </c>
       <c r="FN261" s="6"/>
     </row>
-    <row r="262" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:170">
       <c r="B262" s="8">
         <v>40893</v>
       </c>
@@ -4133,7 +4160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:170">
       <c r="B263" s="8">
         <v>40921</v>
       </c>
@@ -4147,7 +4174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:170">
       <c r="B264" s="8">
         <v>40935</v>
       </c>
@@ -4161,7 +4188,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:170">
       <c r="B265" s="8">
         <v>40949</v>
       </c>
@@ -4175,7 +4202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:170">
       <c r="B266" s="8">
         <v>40977</v>
       </c>
@@ -4189,7 +4216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:170">
       <c r="B267" s="8">
         <v>40998</v>
       </c>
@@ -4203,7 +4230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="268" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:170">
       <c r="B268" s="8">
         <v>41026</v>
       </c>
@@ -4217,7 +4244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:170">
       <c r="B269" s="8">
         <v>41054</v>
       </c>
@@ -4231,7 +4258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:170">
       <c r="B270" s="8">
         <v>41075</v>
       </c>
@@ -4245,7 +4272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:170">
       <c r="B271" s="8">
         <v>41103</v>
       </c>
@@ -4259,7 +4286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:170">
       <c r="B272" s="8">
         <v>41145</v>
       </c>
@@ -4273,7 +4300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="273" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:5" s="7" customFormat="1">
       <c r="B273" s="8">
         <v>41166</v>
       </c>
@@ -4287,7 +4314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:5" s="7" customFormat="1">
       <c r="B274" s="10">
         <v>41180</v>
       </c>
@@ -4301,7 +4328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:5">
       <c r="B275" s="10">
         <v>41193</v>
       </c>
@@ -4315,7 +4342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:5">
       <c r="B276" s="10">
         <v>41208</v>
       </c>
@@ -4329,7 +4356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:5">
       <c r="B277" s="10">
         <v>41229</v>
       </c>
@@ -4343,7 +4370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:5">
       <c r="B278" s="12">
         <v>41243</v>
       </c>
@@ -4357,7 +4384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:5">
       <c r="B279" s="12">
         <v>41257</v>
       </c>
@@ -4371,7 +4398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:5">
       <c r="B280" s="12">
         <v>41285</v>
       </c>
@@ -4385,7 +4412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:5">
       <c r="B281" s="12">
         <v>41299</v>
       </c>
@@ -4399,7 +4426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:5">
       <c r="B282" s="12">
         <v>41327</v>
       </c>
@@ -4413,7 +4440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:5">
       <c r="B283" s="12">
         <v>41341</v>
       </c>
@@ -4427,7 +4454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:5">
       <c r="B284" s="12">
         <v>41355</v>
       </c>
@@ -4441,7 +4468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:5">
       <c r="B285" s="12">
         <v>41376</v>
       </c>
@@ -4455,7 +4482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:5">
       <c r="B286" s="12">
         <v>41390</v>
       </c>
@@ -4469,7 +4496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:5">
       <c r="B287" s="12">
         <v>41411</v>
       </c>
@@ -4483,7 +4510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:5">
       <c r="B288" s="12">
         <v>41432</v>
       </c>
@@ -4497,7 +4524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:5">
       <c r="B289" s="12">
         <v>41453</v>
       </c>
@@ -4511,7 +4538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:5">
       <c r="B290" s="12">
         <v>41467</v>
       </c>
@@ -4525,7 +4552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:5">
       <c r="B291" s="12">
         <v>41488</v>
       </c>
@@ -4539,7 +4566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:5">
       <c r="B292" s="12">
         <v>41502</v>
       </c>
@@ -4553,7 +4580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:5">
       <c r="B293" s="12">
         <v>41509</v>
       </c>
@@ -4567,7 +4594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:5">
       <c r="B294" s="12">
         <v>41515</v>
       </c>
@@ -4581,7 +4608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:5">
       <c r="B295" s="12">
         <v>41522</v>
       </c>
@@ -4595,7 +4622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="296" spans="2:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:5" s="14" customFormat="1">
       <c r="B296" s="8">
         <v>41530</v>
       </c>
@@ -4609,7 +4636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:5">
       <c r="B297" s="12">
         <v>41544</v>
       </c>
@@ -4623,7 +4650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:5">
       <c r="B298" s="12">
         <v>41565</v>
       </c>
@@ -4637,7 +4664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:5">
       <c r="B299" s="12">
         <v>41586</v>
       </c>
@@ -4651,7 +4678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:5">
       <c r="B300" s="12">
         <v>41607</v>
       </c>
@@ -4665,7 +4692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:5">
       <c r="B301" s="12">
         <v>41621</v>
       </c>
@@ -4679,7 +4706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:5">
       <c r="B302" s="6">
         <v>41656</v>
       </c>
@@ -4693,7 +4720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:5">
       <c r="B303" s="12">
         <v>41670</v>
       </c>
@@ -4707,7 +4734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:5">
       <c r="B304" s="12">
         <v>41691</v>
       </c>
@@ -4721,7 +4748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:5">
       <c r="B305" s="6">
         <v>41712</v>
       </c>
@@ -4735,7 +4762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:5">
       <c r="B306" s="6">
         <v>41726</v>
       </c>
@@ -4749,7 +4776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:5">
       <c r="B307" s="12">
         <v>41740</v>
       </c>
@@ -4763,7 +4790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:5">
       <c r="B308" s="12">
         <v>41768</v>
       </c>
@@ -4777,7 +4804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:5">
       <c r="B309" s="12">
         <v>41795</v>
       </c>
@@ -4791,7 +4818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:5">
       <c r="B310" s="12">
         <v>41817</v>
       </c>
@@ -4805,7 +4832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:5">
       <c r="B311" s="12">
         <v>41838</v>
       </c>
@@ -4819,7 +4846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:5">
       <c r="B312" s="12">
         <v>41873</v>
       </c>
@@ -4833,7 +4860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:5">
       <c r="B313" s="12">
         <v>41887</v>
       </c>
@@ -4847,7 +4874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:5">
       <c r="B314" s="12">
         <v>41908</v>
       </c>
@@ -4861,7 +4888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:5">
       <c r="B315" s="12">
         <v>41922</v>
       </c>
@@ -4875,7 +4902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:5">
       <c r="B316" s="12">
         <v>41936</v>
       </c>
@@ -4889,7 +4916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:5">
       <c r="B317" s="12">
         <v>41957</v>
       </c>
@@ -4903,7 +4930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:5">
       <c r="B318" s="12">
         <v>41971</v>
       </c>
@@ -4917,7 +4944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:5">
       <c r="B319" s="12">
         <v>41985</v>
       </c>
@@ -4931,7 +4958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:5">
       <c r="B320" s="12">
         <v>42020</v>
       </c>
@@ -4945,7 +4972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:5">
       <c r="B321" s="12">
         <v>42034</v>
       </c>
@@ -4959,7 +4986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:5">
       <c r="B322" s="12">
         <v>42062</v>
       </c>
@@ -4973,7 +5000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:5">
       <c r="B323" s="12">
         <v>42076</v>
       </c>
@@ -4987,7 +5014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:5">
       <c r="B324" s="12">
         <v>42090</v>
       </c>
@@ -5001,7 +5028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:5">
       <c r="B325" s="12">
         <v>42111</v>
       </c>
@@ -5015,7 +5042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:5">
       <c r="B326" s="12">
         <v>42146</v>
       </c>
@@ -5029,7 +5056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:5">
       <c r="B327" s="12">
         <v>42167</v>
       </c>
@@ -5043,7 +5070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:5">
       <c r="B328" s="12">
         <v>42188</v>
       </c>
@@ -5057,7 +5084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:5">
       <c r="B329" s="12">
         <v>42209</v>
       </c>
@@ -5071,7 +5098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:5">
       <c r="B330" s="6">
         <v>42237</v>
       </c>
@@ -5085,7 +5112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:5">
       <c r="B331" s="12">
         <v>42258</v>
       </c>
@@ -5099,7 +5126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:5">
       <c r="B332" s="8">
         <v>42272</v>
       </c>
@@ -5113,7 +5140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:5">
       <c r="B333" s="12">
         <v>42286</v>
       </c>
@@ -5127,7 +5154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:5">
       <c r="B334" s="12">
         <v>42300</v>
       </c>
@@ -5141,7 +5168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:5">
       <c r="B335" s="12">
         <v>42321</v>
       </c>
@@ -5155,7 +5182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:5">
       <c r="B336" s="12">
         <v>42335</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:5">
       <c r="B337" s="12">
         <v>42349</v>
       </c>
@@ -5183,7 +5210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:5">
       <c r="B338" s="8">
         <v>42384</v>
       </c>
@@ -5197,7 +5224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:5">
       <c r="B339" s="16">
         <v>42419</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:5">
       <c r="B340" s="16">
         <v>42447</v>
       </c>
@@ -5225,7 +5252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:5">
       <c r="B341" s="16">
         <v>42468</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:5">
       <c r="B342" s="16">
         <v>42503</v>
       </c>
@@ -5253,7 +5280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:5">
       <c r="B343" s="16">
         <v>42524</v>
       </c>
@@ -5267,7 +5294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:5">
       <c r="B344" s="16">
         <v>42573</v>
       </c>
@@ -5281,7 +5308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:5">
       <c r="B345" s="16">
         <v>42594</v>
       </c>
@@ -5295,7 +5322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:5">
       <c r="B346" s="16">
         <v>42636</v>
       </c>
@@ -5309,7 +5336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:5">
       <c r="B347" s="16">
         <v>42657</v>
       </c>
@@ -5323,7 +5350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:5">
       <c r="B348" s="16">
         <v>42685</v>
       </c>
@@ -5337,7 +5364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:5">
       <c r="B349" s="16">
         <v>42713</v>
       </c>
@@ -5351,7 +5378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:5">
       <c r="B350" s="16">
         <v>42748</v>
       </c>
@@ -5365,7 +5392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:5">
       <c r="B351" s="6">
         <v>42783</v>
       </c>
@@ -5379,7 +5406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:5">
       <c r="B352" s="16">
         <v>42804</v>
       </c>
@@ -5393,7 +5420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5">
       <c r="B353" s="16">
         <v>42832</v>
       </c>
@@ -5415,37 +5442,52 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>